--- a/data/sensor_metadata/mozambique_missing_aim2_hmid.xlsx
+++ b/data/sensor_metadata/mozambique_missing_aim2_hmid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory.sharepoint.com/sites/EmoryLopmanLab/Mixing/Shared Documents/4.Data and Analysis/GlobalMix/Mozambique/Quantitative/Aim-1/globalmix-mozambique-aim-1/data/sensor_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F0E9A930A3966A07EE65B3EC8A22ACF5D11EF7F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AABAB1F-7B21-6E46-9813-97C366723306}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_F0E9A930A3966A07EE65B3EC8A22ACF5D11EF7F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A1AF19-2002-7344-B961-AFE0ECF5DC66}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28840" yWindow="500" windowWidth="19440" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rural_hmid" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="536">
   <si>
     <t>rec_id</t>
   </si>
@@ -515,9 +515,6 @@
     <t>3206-242</t>
   </si>
   <si>
-    <t>0703-032</t>
-  </si>
-  <si>
     <t>3204-399</t>
   </si>
   <si>
@@ -530,15 +527,9 @@
     <t>3003-155</t>
   </si>
   <si>
-    <t>3104-076</t>
-  </si>
-  <si>
     <t>2702-310</t>
   </si>
   <si>
-    <t>3204-252</t>
-  </si>
-  <si>
     <t>3502-003</t>
   </si>
   <si>
@@ -551,12 +542,6 @@
     <t>3002-119</t>
   </si>
   <si>
-    <t>3306-086</t>
-  </si>
-  <si>
-    <t>3306-098</t>
-  </si>
-  <si>
     <t>2503-389</t>
   </si>
   <si>
@@ -584,9 +569,6 @@
     <t>3101-119</t>
   </si>
   <si>
-    <t>3102-229</t>
-  </si>
-  <si>
     <t>3304-061</t>
   </si>
   <si>
@@ -602,9 +584,6 @@
     <t>2703-063</t>
   </si>
   <si>
-    <t>3204-068</t>
-  </si>
-  <si>
     <t>3204-204</t>
   </si>
   <si>
@@ -1644,13 +1623,19 @@
   </si>
   <si>
     <t>QUKQM203</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1658,13 +1643,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1679,8 +1690,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,6 +1711,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1997,10 +2016,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2028,29 +2050,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>405</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H2" t="s">
-        <v>201</v>
+      <c r="H2" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2076,33 +2098,33 @@
         <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>443</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H4" t="s">
-        <v>201</v>
+      <c r="H4" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2128,33 +2150,33 @@
         <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>445</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H6" t="s">
-        <v>201</v>
+      <c r="H6" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2180,7 +2202,7 @@
         <v>162</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2206,59 +2228,59 @@
         <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>716</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>756</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>756</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" t="s">
-        <v>201</v>
+      <c r="H10" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2281,36 +2303,36 @@
         <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>844</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" t="s">
-        <v>201</v>
+      <c r="G12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2333,10 +2355,10 @@
         <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2359,36 +2381,36 @@
         <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>935</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" t="s">
-        <v>201</v>
+      <c r="G15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2411,36 +2433,36 @@
         <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>989</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" t="s">
-        <v>201</v>
+      <c r="G17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2463,10 +2485,10 @@
         <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2489,10 +2511,10 @@
         <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2515,10 +2537,10 @@
         <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2541,62 +2563,62 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>1208</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" t="s">
-        <v>201</v>
+      <c r="G22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1219</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" t="s">
-        <v>201</v>
+      <c r="G23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2619,10 +2641,10 @@
         <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2645,10 +2667,10 @@
         <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2671,10 +2693,10 @@
         <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2697,10 +2719,10 @@
         <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2723,10 +2745,10 @@
         <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2749,10 +2771,10 @@
         <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2775,10 +2797,10 @@
         <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2801,10 +2823,10 @@
         <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2827,36 +2849,36 @@
         <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>1466</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" t="s">
-        <v>201</v>
+      <c r="G33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2879,10 +2901,10 @@
         <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2905,10 +2927,10 @@
         <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2931,10 +2953,10 @@
         <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2957,10 +2979,10 @@
         <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2983,36 +3005,36 @@
         <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>1696</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G39" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" t="s">
-        <v>201</v>
+      <c r="G39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3035,10 +3057,10 @@
         <v>146</v>
       </c>
       <c r="G40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" t="s">
         <v>194</v>
-      </c>
-      <c r="H40" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3061,10 +3083,10 @@
         <v>146</v>
       </c>
       <c r="G41" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" t="s">
         <v>194</v>
-      </c>
-      <c r="H41" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3087,36 +3109,36 @@
         <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>1815</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G43" t="s">
-        <v>195</v>
-      </c>
-      <c r="H43" t="s">
-        <v>201</v>
+      <c r="G43" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3139,10 +3161,10 @@
         <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3165,10 +3187,10 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H45" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3191,10 +3213,10 @@
         <v>151</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3217,62 +3239,62 @@
         <v>152</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>1827</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H48" t="s">
-        <v>201</v>
+      <c r="G48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>1828</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G49" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" t="s">
-        <v>201</v>
+      <c r="G49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3295,36 +3317,36 @@
         <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H50" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>6843</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G51" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" t="s">
-        <v>201</v>
+      <c r="G51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3347,10 +3369,10 @@
         <v>157</v>
       </c>
       <c r="G52" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3402,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3416,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3430,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3444,7 +3466,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3458,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3472,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3486,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3500,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3514,7 +3536,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3528,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3542,7 +3564,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3556,7 +3578,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3570,7 +3592,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3584,7 +3606,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3598,7 +3620,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3626,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3640,7 +3662,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3654,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3668,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3682,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3696,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3710,7 +3732,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3724,7 +3746,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3738,7 +3760,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3752,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3766,7 +3788,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3780,7 +3802,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3794,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3808,7 +3830,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3822,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3836,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3850,7 +3872,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3864,7 +3886,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3878,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3892,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3906,7 +3928,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3920,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3934,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3948,7 +3970,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3962,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3976,7 +3998,7 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3990,7 +4012,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4004,7 +4026,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4018,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4032,7 +4054,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4046,7 +4068,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4060,7 +4082,7 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4074,7 +4096,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4088,12 +4110,12 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B53">
         <v>746</v>
@@ -4102,12 +4124,12 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B54">
         <v>747</v>
@@ -4116,12 +4138,12 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B55">
         <v>748</v>
@@ -4130,12 +4152,12 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B56">
         <v>773</v>
@@ -4144,12 +4166,12 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B57">
         <v>774</v>
@@ -4158,12 +4180,12 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B58">
         <v>775</v>
@@ -4172,12 +4194,12 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B59">
         <v>807</v>
@@ -4186,12 +4208,12 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B60">
         <v>808</v>
@@ -4200,12 +4222,12 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B61">
         <v>809</v>
@@ -4214,12 +4236,12 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B62">
         <v>810</v>
@@ -4228,12 +4250,12 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B63">
         <v>811</v>
@@ -4242,12 +4264,12 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B64">
         <v>899</v>
@@ -4256,12 +4278,12 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B65">
         <v>900</v>
@@ -4270,12 +4292,12 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B66">
         <v>901</v>
@@ -4284,12 +4306,12 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B67">
         <v>902</v>
@@ -4298,12 +4320,12 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B68">
         <v>903</v>
@@ -4312,12 +4334,12 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B69">
         <v>904</v>
@@ -4326,12 +4348,12 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B70">
         <v>905</v>
@@ -4340,12 +4362,12 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B71">
         <v>906</v>
@@ -4354,12 +4376,12 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B72">
         <v>907</v>
@@ -4368,12 +4390,12 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B73">
         <v>908</v>
@@ -4382,12 +4404,12 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B74">
         <v>909</v>
@@ -4396,12 +4418,12 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B75">
         <v>910</v>
@@ -4410,12 +4432,12 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B76">
         <v>965</v>
@@ -4424,12 +4446,12 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B77">
         <v>966</v>
@@ -4438,12 +4460,12 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B78">
         <v>967</v>
@@ -4452,12 +4474,12 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B79">
         <v>968</v>
@@ -4466,12 +4488,12 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B80">
         <v>969</v>
@@ -4480,12 +4502,12 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B81">
         <v>970</v>
@@ -4494,12 +4516,12 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B82">
         <v>971</v>
@@ -4508,12 +4530,12 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B83">
         <v>972</v>
@@ -4522,12 +4544,12 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B84">
         <v>1017</v>
@@ -4536,12 +4558,12 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B85">
         <v>1018</v>
@@ -4550,12 +4572,12 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B86">
         <v>1025</v>
@@ -4564,12 +4586,12 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B87">
         <v>1026</v>
@@ -4578,12 +4600,12 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B88">
         <v>1030</v>
@@ -4592,12 +4614,12 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B89">
         <v>1031</v>
@@ -4606,12 +4628,12 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B90">
         <v>1032</v>
@@ -4620,12 +4642,12 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B91">
         <v>1033</v>
@@ -4634,12 +4656,12 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B92">
         <v>1034</v>
@@ -4648,12 +4670,12 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B93">
         <v>1035</v>
@@ -4662,12 +4684,12 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B94">
         <v>1036</v>
@@ -4676,12 +4698,12 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B95">
         <v>1037</v>
@@ -4690,12 +4712,12 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B96">
         <v>1038</v>
@@ -4704,12 +4726,12 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B97">
         <v>1040</v>
@@ -4718,12 +4740,12 @@
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B98">
         <v>1041</v>
@@ -4732,12 +4754,12 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B99">
         <v>1109</v>
@@ -4746,12 +4768,12 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B100">
         <v>1110</v>
@@ -4760,12 +4782,12 @@
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B101">
         <v>1111</v>
@@ -4774,12 +4796,12 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B102">
         <v>1116</v>
@@ -4788,12 +4810,12 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B103">
         <v>1117</v>
@@ -4802,12 +4824,12 @@
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B104">
         <v>1118</v>
@@ -4816,12 +4838,12 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B105">
         <v>1119</v>
@@ -4830,12 +4852,12 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B106">
         <v>1129</v>
@@ -4844,12 +4866,12 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B107">
         <v>1130</v>
@@ -4858,12 +4880,12 @@
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B108">
         <v>1131</v>
@@ -4872,12 +4894,12 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B109">
         <v>1132</v>
@@ -4886,12 +4908,12 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B110">
         <v>1141</v>
@@ -4900,12 +4922,12 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B111">
         <v>1142</v>
@@ -4914,12 +4936,12 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B112">
         <v>1145</v>
@@ -4928,12 +4950,12 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B113">
         <v>1146</v>
@@ -4942,12 +4964,12 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B114">
         <v>1147</v>
@@ -4956,12 +4978,12 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B115">
         <v>1148</v>
@@ -4970,12 +4992,12 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B116">
         <v>1180</v>
@@ -4984,12 +5006,12 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B117">
         <v>1182</v>
@@ -4998,12 +5020,12 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B118">
         <v>1183</v>
@@ -5012,12 +5034,12 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B119">
         <v>1184</v>
@@ -5026,12 +5048,12 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B120">
         <v>1188</v>
@@ -5040,12 +5062,12 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B121">
         <v>1190</v>
@@ -5054,12 +5076,12 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B122">
         <v>1191</v>
@@ -5068,12 +5090,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B123">
         <v>1192</v>
@@ -5082,12 +5104,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B124">
         <v>1193</v>
@@ -5096,12 +5118,12 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B125">
         <v>1194</v>
@@ -5110,12 +5132,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B126">
         <v>1195</v>
@@ -5124,12 +5146,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B127">
         <v>1196</v>
@@ -5138,12 +5160,12 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B128">
         <v>1199</v>
@@ -5152,12 +5174,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B129">
         <v>1200</v>
@@ -5166,12 +5188,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B130">
         <v>1201</v>
@@ -5180,12 +5202,12 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B131">
         <v>1202</v>
@@ -5194,12 +5216,12 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B132">
         <v>1249</v>
@@ -5208,12 +5230,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B133">
         <v>1250</v>
@@ -5222,12 +5244,12 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B134">
         <v>1251</v>
@@ -5236,12 +5258,12 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B135">
         <v>1252</v>
@@ -5250,12 +5272,12 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B136">
         <v>1253</v>
@@ -5264,12 +5286,12 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B137">
         <v>1254</v>
@@ -5278,12 +5300,12 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B138">
         <v>1255</v>
@@ -5292,12 +5314,12 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B139">
         <v>1257</v>
@@ -5306,12 +5328,12 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B140">
         <v>1258</v>
@@ -5320,12 +5342,12 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B141">
         <v>1259</v>
@@ -5334,12 +5356,12 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B142">
         <v>1260</v>
@@ -5348,12 +5370,12 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B143">
         <v>1270</v>
@@ -5362,12 +5384,12 @@
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B144">
         <v>1271</v>
@@ -5376,12 +5398,12 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B145">
         <v>1272</v>
@@ -5390,12 +5412,12 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B146">
         <v>1273</v>
@@ -5404,12 +5426,12 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B147">
         <v>1274</v>
@@ -5418,12 +5440,12 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B148">
         <v>1277</v>
@@ -5432,12 +5454,12 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B149">
         <v>1278</v>
@@ -5446,12 +5468,12 @@
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B150">
         <v>1279</v>
@@ -5460,12 +5482,12 @@
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B151">
         <v>1283</v>
@@ -5474,12 +5496,12 @@
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B152">
         <v>1284</v>
@@ -5488,12 +5510,12 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B153">
         <v>1285</v>
@@ -5502,12 +5524,12 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B154">
         <v>1303</v>
@@ -5516,12 +5538,12 @@
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B155">
         <v>1304</v>
@@ -5530,12 +5552,12 @@
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B156">
         <v>1305</v>
@@ -5544,12 +5566,12 @@
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B157">
         <v>1314</v>
@@ -5558,12 +5580,12 @@
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B158">
         <v>1315</v>
@@ -5572,12 +5594,12 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B159">
         <v>1343</v>
@@ -5586,12 +5608,12 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B160">
         <v>1344</v>
@@ -5600,12 +5622,12 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B161">
         <v>1345</v>
@@ -5614,12 +5636,12 @@
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B162">
         <v>1346</v>
@@ -5628,12 +5650,12 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B163">
         <v>1347</v>
@@ -5642,12 +5664,12 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B164">
         <v>1366</v>
@@ -5656,12 +5678,12 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B165">
         <v>1367</v>
@@ -5670,12 +5692,12 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B166">
         <v>1368</v>
@@ -5684,12 +5706,12 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B167">
         <v>1369</v>
@@ -5698,12 +5720,12 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B168">
         <v>1370</v>
@@ -5712,12 +5734,12 @@
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B169">
         <v>1371</v>
@@ -5726,12 +5748,12 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B170">
         <v>1386</v>
@@ -5740,12 +5762,12 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B171">
         <v>1387</v>
@@ -5754,12 +5776,12 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B172">
         <v>1388</v>
@@ -5768,12 +5790,12 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B173">
         <v>1389</v>
@@ -5782,12 +5804,12 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B174">
         <v>1390</v>
@@ -5796,12 +5818,12 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B175">
         <v>1391</v>
@@ -5810,12 +5832,12 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B176">
         <v>1484</v>
@@ -5824,12 +5846,12 @@
         <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B177">
         <v>1485</v>
@@ -5838,12 +5860,12 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B178">
         <v>1486</v>
@@ -5852,12 +5874,12 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B179">
         <v>1487</v>
@@ -5866,12 +5888,12 @@
         <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B180">
         <v>1488</v>
@@ -5880,12 +5902,12 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B181">
         <v>1489</v>
@@ -5894,12 +5916,12 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B182">
         <v>1490</v>
@@ -5908,12 +5930,12 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B183">
         <v>1491</v>
@@ -5922,12 +5944,12 @@
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B184">
         <v>1492</v>
@@ -5936,12 +5958,12 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B185">
         <v>1493</v>
@@ -5950,12 +5972,12 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B186">
         <v>1494</v>
@@ -5964,12 +5986,12 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B187">
         <v>1495</v>
@@ -5978,12 +6000,12 @@
         <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B188">
         <v>1496</v>
@@ -5992,12 +6014,12 @@
         <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B189">
         <v>1497</v>
@@ -6006,12 +6028,12 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B190">
         <v>1498</v>
@@ -6020,12 +6042,12 @@
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B191">
         <v>1499</v>
@@ -6034,12 +6056,12 @@
         <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B192">
         <v>1500</v>
@@ -6048,12 +6070,12 @@
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B193">
         <v>1501</v>
@@ -6062,12 +6084,12 @@
         <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B194">
         <v>1502</v>
@@ -6076,12 +6098,12 @@
         <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B195">
         <v>1503</v>
@@ -6090,12 +6112,12 @@
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B196">
         <v>1504</v>
@@ -6104,12 +6126,12 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B197">
         <v>1505</v>
@@ -6118,12 +6140,12 @@
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B198">
         <v>1506</v>
@@ -6132,12 +6154,12 @@
         <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B199">
         <v>1507</v>
@@ -6146,12 +6168,12 @@
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B200">
         <v>1510</v>
@@ -6160,12 +6182,12 @@
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B201">
         <v>1511</v>
@@ -6174,12 +6196,12 @@
         <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B202">
         <v>1512</v>
@@ -6188,12 +6210,12 @@
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B203">
         <v>1513</v>
@@ -6202,12 +6224,12 @@
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B204">
         <v>1514</v>
@@ -6216,12 +6238,12 @@
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B205">
         <v>1515</v>
@@ -6230,12 +6252,12 @@
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B206">
         <v>1516</v>
@@ -6244,12 +6266,12 @@
         <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B207">
         <v>1518</v>
@@ -6258,12 +6280,12 @@
         <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B208">
         <v>1519</v>
@@ -6272,12 +6294,12 @@
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B209">
         <v>1520</v>
@@ -6286,12 +6308,12 @@
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B210">
         <v>1521</v>
@@ -6300,12 +6322,12 @@
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B211">
         <v>1522</v>
@@ -6314,12 +6336,12 @@
         <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B212">
         <v>1523</v>
@@ -6328,12 +6350,12 @@
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B213">
         <v>1524</v>
@@ -6342,12 +6364,12 @@
         <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B214">
         <v>1526</v>
@@ -6356,12 +6378,12 @@
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B215">
         <v>1527</v>
@@ -6370,12 +6392,12 @@
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B216">
         <v>1528</v>
@@ -6384,12 +6406,12 @@
         <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B217">
         <v>1529</v>
@@ -6398,12 +6420,12 @@
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B218">
         <v>1530</v>
@@ -6412,12 +6434,12 @@
         <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B219">
         <v>1539</v>
@@ -6426,12 +6448,12 @@
         <v>8</v>
       </c>
       <c r="D219" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B220">
         <v>1540</v>
@@ -6440,12 +6462,12 @@
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B221">
         <v>1541</v>
@@ -6454,12 +6476,12 @@
         <v>8</v>
       </c>
       <c r="D221" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B222">
         <v>1542</v>
@@ -6468,12 +6490,12 @@
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B223">
         <v>1566</v>
@@ -6482,12 +6504,12 @@
         <v>8</v>
       </c>
       <c r="D223" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B224">
         <v>1567</v>
@@ -6496,12 +6518,12 @@
         <v>8</v>
       </c>
       <c r="D224" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B225">
         <v>1568</v>
@@ -6510,12 +6532,12 @@
         <v>8</v>
       </c>
       <c r="D225" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B226">
         <v>1603</v>
@@ -6524,12 +6546,12 @@
         <v>8</v>
       </c>
       <c r="D226" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B227">
         <v>1604</v>
@@ -6538,12 +6560,12 @@
         <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B228">
         <v>1606</v>
@@ -6552,12 +6574,12 @@
         <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B229">
         <v>1607</v>
@@ -6566,12 +6588,12 @@
         <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B230">
         <v>1608</v>
@@ -6580,12 +6602,12 @@
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B231">
         <v>1609</v>
@@ -6594,12 +6616,12 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B232">
         <v>1610</v>
@@ -6608,12 +6630,12 @@
         <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B233">
         <v>1611</v>
@@ -6622,12 +6644,12 @@
         <v>8</v>
       </c>
       <c r="D233" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B234">
         <v>1613</v>
@@ -6636,12 +6658,12 @@
         <v>8</v>
       </c>
       <c r="D234" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B235">
         <v>1614</v>
@@ -6650,12 +6672,12 @@
         <v>8</v>
       </c>
       <c r="D235" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B236">
         <v>1615</v>
@@ -6664,12 +6686,12 @@
         <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B237">
         <v>1616</v>
@@ -6678,12 +6700,12 @@
         <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B238">
         <v>1617</v>
@@ -6692,12 +6714,12 @@
         <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B239">
         <v>1623</v>
@@ -6706,12 +6728,12 @@
         <v>8</v>
       </c>
       <c r="D239" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B240">
         <v>1624</v>
@@ -6720,12 +6742,12 @@
         <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B241">
         <v>1625</v>
@@ -6734,12 +6756,12 @@
         <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B242">
         <v>1626</v>
@@ -6748,12 +6770,12 @@
         <v>8</v>
       </c>
       <c r="D242" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B243">
         <v>1627</v>
@@ -6762,12 +6784,12 @@
         <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B244">
         <v>1629</v>
@@ -6776,12 +6798,12 @@
         <v>8</v>
       </c>
       <c r="D244" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B245">
         <v>1630</v>
@@ -6790,12 +6812,12 @@
         <v>8</v>
       </c>
       <c r="D245" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B246">
         <v>1631</v>
@@ -6804,12 +6826,12 @@
         <v>8</v>
       </c>
       <c r="D246" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B247">
         <v>1632</v>
@@ -6818,12 +6840,12 @@
         <v>8</v>
       </c>
       <c r="D247" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B248">
         <v>1633</v>
@@ -6832,12 +6854,12 @@
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B249">
         <v>1634</v>
@@ -6846,12 +6868,12 @@
         <v>8</v>
       </c>
       <c r="D249" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B250">
         <v>1635</v>
@@ -6860,12 +6882,12 @@
         <v>8</v>
       </c>
       <c r="D250" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B251">
         <v>1636</v>
@@ -6874,12 +6896,12 @@
         <v>8</v>
       </c>
       <c r="D251" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B252">
         <v>1637</v>
@@ -6888,12 +6910,12 @@
         <v>8</v>
       </c>
       <c r="D252" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B253">
         <v>1638</v>
@@ -6902,12 +6924,12 @@
         <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B254">
         <v>1650</v>
@@ -6916,12 +6938,12 @@
         <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B255">
         <v>1716</v>
@@ -6930,12 +6952,12 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B256">
         <v>1717</v>
@@ -6944,12 +6966,12 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B257">
         <v>1719</v>
@@ -6958,12 +6980,12 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B258">
         <v>1720</v>
@@ -6972,12 +6994,12 @@
         <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B259">
         <v>1721</v>
@@ -6986,12 +7008,12 @@
         <v>8</v>
       </c>
       <c r="D259" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B260">
         <v>1722</v>
@@ -7000,12 +7022,12 @@
         <v>8</v>
       </c>
       <c r="D260" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B261">
         <v>1724</v>
@@ -7014,12 +7036,12 @@
         <v>8</v>
       </c>
       <c r="D261" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B262">
         <v>1725</v>
@@ -7028,12 +7050,12 @@
         <v>8</v>
       </c>
       <c r="D262" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B263">
         <v>1726</v>
@@ -7042,12 +7064,12 @@
         <v>8</v>
       </c>
       <c r="D263" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B264">
         <v>1727</v>
@@ -7056,12 +7078,12 @@
         <v>8</v>
       </c>
       <c r="D264" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B265">
         <v>1728</v>
@@ -7070,12 +7092,12 @@
         <v>8</v>
       </c>
       <c r="D265" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B266">
         <v>1729</v>
@@ -7084,12 +7106,12 @@
         <v>8</v>
       </c>
       <c r="D266" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B267">
         <v>1730</v>
@@ -7098,12 +7120,12 @@
         <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B268">
         <v>1731</v>
@@ -7112,12 +7134,12 @@
         <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B269">
         <v>1732</v>
@@ -7126,12 +7148,12 @@
         <v>8</v>
       </c>
       <c r="D269" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B270">
         <v>1733</v>
@@ -7140,12 +7162,12 @@
         <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B271">
         <v>1734</v>
@@ -7154,12 +7176,12 @@
         <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B272">
         <v>1735</v>
@@ -7168,12 +7190,12 @@
         <v>8</v>
       </c>
       <c r="D272" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B273">
         <v>1736</v>
@@ -7182,12 +7204,12 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B274">
         <v>1737</v>
@@ -7196,12 +7218,12 @@
         <v>8</v>
       </c>
       <c r="D274" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B275">
         <v>1738</v>
@@ -7210,12 +7232,12 @@
         <v>8</v>
       </c>
       <c r="D275" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B276">
         <v>1739</v>
@@ -7224,12 +7246,12 @@
         <v>8</v>
       </c>
       <c r="D276" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B277">
         <v>1740</v>
@@ -7238,12 +7260,12 @@
         <v>8</v>
       </c>
       <c r="D277" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B278">
         <v>1742</v>
@@ -7252,12 +7274,12 @@
         <v>8</v>
       </c>
       <c r="D278" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B279">
         <v>1743</v>
@@ -7266,12 +7288,12 @@
         <v>8</v>
       </c>
       <c r="D279" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B280">
         <v>1745</v>
@@ -7280,12 +7302,12 @@
         <v>8</v>
       </c>
       <c r="D280" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B281">
         <v>1746</v>
@@ -7294,12 +7316,12 @@
         <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B282">
         <v>1747</v>
@@ -7308,12 +7330,12 @@
         <v>8</v>
       </c>
       <c r="D282" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B283">
         <v>1778</v>
@@ -7322,12 +7344,12 @@
         <v>8</v>
       </c>
       <c r="D283" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B284">
         <v>1780</v>
@@ -7336,12 +7358,12 @@
         <v>8</v>
       </c>
       <c r="D284" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B285">
         <v>1781</v>
@@ -7350,12 +7372,12 @@
         <v>8</v>
       </c>
       <c r="D285" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B286">
         <v>1782</v>
@@ -7364,12 +7386,12 @@
         <v>8</v>
       </c>
       <c r="D286" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B287">
         <v>1859</v>
@@ -7378,12 +7400,12 @@
         <v>8</v>
       </c>
       <c r="D287" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B288">
         <v>1897</v>
@@ -7392,12 +7414,12 @@
         <v>8</v>
       </c>
       <c r="D288" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B289">
         <v>1950</v>
@@ -7406,12 +7428,12 @@
         <v>8</v>
       </c>
       <c r="D289" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B290">
         <v>1951</v>
@@ -7420,12 +7442,12 @@
         <v>8</v>
       </c>
       <c r="D290" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B291">
         <v>1952</v>
@@ -7434,12 +7456,12 @@
         <v>8</v>
       </c>
       <c r="D291" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B292">
         <v>1953</v>
@@ -7448,12 +7470,12 @@
         <v>8</v>
       </c>
       <c r="D292" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B293">
         <v>1954</v>
@@ -7462,12 +7484,12 @@
         <v>8</v>
       </c>
       <c r="D293" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B294">
         <v>1955</v>
@@ -7476,12 +7498,12 @@
         <v>8</v>
       </c>
       <c r="D294" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B295">
         <v>1979</v>
@@ -7490,12 +7512,12 @@
         <v>8</v>
       </c>
       <c r="D295" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B296">
         <v>2228</v>
@@ -7504,12 +7526,12 @@
         <v>8</v>
       </c>
       <c r="D296" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B297">
         <v>2230</v>
@@ -7518,12 +7540,12 @@
         <v>8</v>
       </c>
       <c r="D297" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B298">
         <v>2253</v>
@@ -7532,12 +7554,12 @@
         <v>8</v>
       </c>
       <c r="D298" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B299">
         <v>2256</v>
@@ -7546,12 +7568,12 @@
         <v>8</v>
       </c>
       <c r="D299" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B300">
         <v>2257</v>
@@ -7560,12 +7582,12 @@
         <v>8</v>
       </c>
       <c r="D300" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B301">
         <v>2258</v>
@@ -7574,12 +7596,12 @@
         <v>8</v>
       </c>
       <c r="D301" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B302">
         <v>2259</v>
@@ -7588,12 +7610,12 @@
         <v>8</v>
       </c>
       <c r="D302" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B303">
         <v>2261</v>
@@ -7602,12 +7624,12 @@
         <v>8</v>
       </c>
       <c r="D303" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B304">
         <v>5800</v>
@@ -7616,12 +7638,12 @@
         <v>8</v>
       </c>
       <c r="D304" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B305">
         <v>5801</v>
@@ -7630,12 +7652,12 @@
         <v>8</v>
       </c>
       <c r="D305" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B306">
         <v>5804</v>
@@ -7644,12 +7666,12 @@
         <v>8</v>
       </c>
       <c r="D306" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B307">
         <v>5805</v>
@@ -7658,12 +7680,12 @@
         <v>8</v>
       </c>
       <c r="D307" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B308">
         <v>5806</v>
@@ -7672,12 +7694,12 @@
         <v>8</v>
       </c>
       <c r="D308" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B309">
         <v>5807</v>
@@ -7686,12 +7708,12 @@
         <v>8</v>
       </c>
       <c r="D309" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B310">
         <v>5814</v>
@@ -7705,7 +7727,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B311">
         <v>5826</v>
@@ -7714,7 +7736,7 @@
         <v>8</v>
       </c>
       <c r="D311" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
